--- a/Output_Best_Q3.xlsx
+++ b/Output_Best_Q3.xlsx
@@ -22,28 +22,28 @@
     <t>Month</t>
   </si>
   <si>
-    <t>No of FTE</t>
+    <t>No of FTE Best</t>
   </si>
   <si>
     <t>Demand</t>
   </si>
   <si>
-    <t>No of Outsourced App</t>
-  </si>
-  <si>
-    <t>No of FTE Processed App</t>
-  </si>
-  <si>
-    <t>Estimated Cost</t>
-  </si>
-  <si>
-    <t>Percent Outsourced App</t>
-  </si>
-  <si>
-    <t>Average Cost Per Application</t>
-  </si>
-  <si>
-    <t>Estimated Cost in mn $</t>
+    <t>No of Outsource App Best</t>
+  </si>
+  <si>
+    <t>No of FTE Processed App Best</t>
+  </si>
+  <si>
+    <t>Estimated Cost Best</t>
+  </si>
+  <si>
+    <t>Percent Outsourced App Best</t>
+  </si>
+  <si>
+    <t>Average Cost Per Application Best</t>
+  </si>
+  <si>
+    <t>Estimated Cost in mn $ Best</t>
   </si>
   <si>
     <t>A</t>
@@ -495,28 +495,28 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>55.5</v>
+        <v>145.6</v>
       </c>
       <c r="E2">
-        <v>1998</v>
+        <v>5240</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1998</v>
+        <v>5240</v>
       </c>
       <c r="H2">
-        <v>277500</v>
+        <v>727777.77777778</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>138.89</v>
+        <v>138.9</v>
       </c>
       <c r="K2">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -530,28 +530,28 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>58.8</v>
+        <v>143.5</v>
       </c>
       <c r="E3">
-        <v>1998</v>
+        <v>4878</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1997</v>
+        <v>4877</v>
       </c>
       <c r="H3">
-        <v>293823.53</v>
+        <v>717352.94117647</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>147.06</v>
+        <v>147.1</v>
       </c>
       <c r="K3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -565,28 +565,28 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>62.4</v>
+        <v>185.7</v>
       </c>
       <c r="E4">
-        <v>1998</v>
+        <v>5942</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1998</v>
+        <v>5942</v>
       </c>
       <c r="H4">
-        <v>312187.5</v>
+        <v>928437.5</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>156.25</v>
+        <v>156.2</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -600,25 +600,25 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>58.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E5">
-        <v>1998</v>
+        <v>2297</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1997</v>
+        <v>2297</v>
       </c>
       <c r="H5">
-        <v>293823.53</v>
+        <v>337794.117647059</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>147.06</v>
+        <v>147.1</v>
       </c>
       <c r="K5">
         <v>0.3</v>
@@ -635,25 +635,25 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>58.8</v>
+        <v>58.6</v>
       </c>
       <c r="E6">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="H6">
-        <v>293823.53</v>
+        <v>292941.176470588</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>147.06</v>
+        <v>147.1</v>
       </c>
       <c r="K6">
         <v>0.3</v>
@@ -670,28 +670,28 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>62.4</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E7">
-        <v>1998</v>
+        <v>2275</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1998</v>
+        <v>2275</v>
       </c>
       <c r="H7">
-        <v>312187.5</v>
+        <v>355468.75</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>156.25</v>
+        <v>156.2</v>
       </c>
       <c r="K7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -705,28 +705,28 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>66.59999999999999</v>
+        <v>177.8</v>
       </c>
       <c r="E8">
-        <v>1998</v>
+        <v>5334</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1998</v>
+        <v>5334</v>
       </c>
       <c r="H8">
-        <v>333000</v>
+        <v>889000</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>166.67</v>
+        <v>166.7</v>
       </c>
       <c r="K8">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -740,28 +740,28 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>58.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E9">
-        <v>1998</v>
+        <v>3371</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1997</v>
+        <v>3370</v>
       </c>
       <c r="H9">
-        <v>293823.53</v>
+        <v>495735.294117647</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>147.06</v>
+        <v>147.1</v>
       </c>
       <c r="K9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,28 +775,28 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>55.5</v>
+        <v>104.4</v>
       </c>
       <c r="E10">
-        <v>1998</v>
+        <v>3759</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1998</v>
+        <v>3759</v>
       </c>
       <c r="H10">
-        <v>277500</v>
+        <v>522083.333333335</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>138.89</v>
+        <v>138.9</v>
       </c>
       <c r="K10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,28 +810,28 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>62.4</v>
+        <v>110.3</v>
       </c>
       <c r="E11">
-        <v>1998</v>
+        <v>3529</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1998</v>
+        <v>3529</v>
       </c>
       <c r="H11">
-        <v>312187.5</v>
+        <v>551406.25</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>156.25</v>
+        <v>156.2</v>
       </c>
       <c r="K11">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -845,28 +845,28 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>66.59999999999999</v>
+        <v>142.8</v>
       </c>
       <c r="E12">
-        <v>1998</v>
+        <v>4284</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1998</v>
+        <v>4284</v>
       </c>
       <c r="H12">
-        <v>333000</v>
+        <v>714000</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>166.67</v>
+        <v>166.7</v>
       </c>
       <c r="K12">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -880,28 +880,28 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>71.40000000000001</v>
+        <v>185.1</v>
       </c>
       <c r="E13">
-        <v>1998</v>
+        <v>5183</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1998</v>
+        <v>5183</v>
       </c>
       <c r="H13">
-        <v>356785.71</v>
+        <v>925535.714285715</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>178.57</v>
+        <v>178.6</v>
       </c>
       <c r="K13">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -915,28 +915,28 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>55.5</v>
+        <v>136.9</v>
       </c>
       <c r="E14">
-        <v>1998</v>
+        <v>4927</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1998</v>
+        <v>4926</v>
       </c>
       <c r="H14">
-        <v>254375</v>
+        <v>627280.092592592</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>127.31</v>
+        <v>127.3</v>
       </c>
       <c r="K14">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>58.8</v>
+        <v>77.3</v>
       </c>
       <c r="E15">
-        <v>1998</v>
+        <v>2628</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1997</v>
+        <v>2627</v>
       </c>
       <c r="H15">
-        <v>269338.24</v>
+        <v>354264.7058823528</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>134.8</v>
       </c>
       <c r="K15">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -985,28 +985,28 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>62.4</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E16">
-        <v>1998</v>
+        <v>2974</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1998</v>
+        <v>2974</v>
       </c>
       <c r="H16">
-        <v>286171.88</v>
+        <v>425963.5416666666</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>143.23</v>
+        <v>143.2</v>
       </c>
       <c r="K16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>58.8</v>
+        <v>68.8</v>
       </c>
       <c r="E17">
-        <v>1998</v>
+        <v>2338</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1997</v>
+        <v>2337</v>
       </c>
       <c r="H17">
-        <v>269338.24</v>
+        <v>315171.5686274508</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1055,19 +1055,19 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>58.8</v>
+        <v>118.2</v>
       </c>
       <c r="E18">
-        <v>1998</v>
+        <v>4020</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1997</v>
+        <v>4019</v>
       </c>
       <c r="H18">
-        <v>269338.24</v>
+        <v>541911.7647058821</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>134.8</v>
       </c>
       <c r="K18">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1090,28 +1090,28 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>62.4</v>
+        <v>98.3</v>
       </c>
       <c r="E19">
-        <v>1998</v>
+        <v>3147</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1998</v>
+        <v>3147</v>
       </c>
       <c r="H19">
-        <v>286171.88</v>
+        <v>450742.1874999999</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>143.23</v>
+        <v>143.2</v>
       </c>
       <c r="K19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1125,28 +1125,28 @@
         <v>19</v>
       </c>
       <c r="D20">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="E20">
+        <v>4271</v>
+      </c>
+      <c r="F20">
+        <v>1708</v>
+      </c>
+      <c r="G20">
+        <v>2562</v>
+      </c>
+      <c r="H20">
+        <v>647769.4444444443</v>
+      </c>
+      <c r="I20">
         <v>40</v>
       </c>
-      <c r="E20">
-        <v>1998</v>
-      </c>
-      <c r="F20">
-        <v>799</v>
-      </c>
-      <c r="G20">
-        <v>1199</v>
-      </c>
-      <c r="H20">
-        <v>303030.56</v>
-      </c>
-      <c r="I20">
-        <v>39.99</v>
-      </c>
       <c r="J20">
-        <v>151.67</v>
+        <v>151.7</v>
       </c>
       <c r="K20">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1160,19 +1160,19 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>58.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E21">
-        <v>1998</v>
+        <v>2620</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1997</v>
+        <v>2620</v>
       </c>
       <c r="H21">
-        <v>269338.24</v>
+        <v>353186.274509804</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>134.8</v>
       </c>
       <c r="K21">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1195,28 +1195,28 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>55.5</v>
+        <v>125.5</v>
       </c>
       <c r="E22">
-        <v>1998</v>
+        <v>4517</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1998</v>
+        <v>4516</v>
       </c>
       <c r="H22">
-        <v>254375</v>
+        <v>575081.0185185175</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>127.31</v>
+        <v>127.3</v>
       </c>
       <c r="K22">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>62.4</v>
+        <v>129.8</v>
       </c>
       <c r="E23">
-        <v>1998</v>
+        <v>4155</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1998</v>
+        <v>4155</v>
       </c>
       <c r="H23">
-        <v>286171.88</v>
+        <v>595117.1875</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>143.23</v>
+        <v>143.2</v>
       </c>
       <c r="K23">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1265,28 +1265,28 @@
         <v>23</v>
       </c>
       <c r="D24">
+        <v>62.8</v>
+      </c>
+      <c r="E24">
+        <v>3137</v>
+      </c>
+      <c r="F24">
+        <v>1254</v>
+      </c>
+      <c r="G24">
+        <v>1883</v>
+      </c>
+      <c r="H24">
+        <v>475780.5555555557</v>
+      </c>
+      <c r="I24">
         <v>40</v>
       </c>
-      <c r="E24">
-        <v>1998</v>
-      </c>
-      <c r="F24">
-        <v>799</v>
-      </c>
-      <c r="G24">
-        <v>1199</v>
-      </c>
-      <c r="H24">
-        <v>303030.56</v>
-      </c>
-      <c r="I24">
-        <v>39.99</v>
-      </c>
       <c r="J24">
-        <v>151.67</v>
+        <v>151.7</v>
       </c>
       <c r="K24">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1300,28 +1300,28 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>42.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>4227</v>
       </c>
       <c r="F25">
-        <v>799</v>
+        <v>1690</v>
       </c>
       <c r="G25">
-        <v>1199</v>
+        <v>2537</v>
       </c>
       <c r="H25">
-        <v>316114.88</v>
+        <v>668782.7380952383</v>
       </c>
       <c r="I25">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J25">
-        <v>158.22</v>
+        <v>158.2</v>
       </c>
       <c r="K25">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1335,28 +1335,28 @@
         <v>13</v>
       </c>
       <c r="D26">
-        <v>55.5</v>
+        <v>32.3</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1162</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1998</v>
+        <v>1162</v>
       </c>
       <c r="H26">
-        <v>245125</v>
+        <v>142560.1851851853</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>122.69</v>
+        <v>122.7</v>
       </c>
       <c r="K26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1370,19 +1370,19 @@
         <v>14</v>
       </c>
       <c r="D27">
-        <v>58.8</v>
+        <v>57.9</v>
       </c>
       <c r="E27">
-        <v>1998</v>
+        <v>1967</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="H27">
-        <v>259544.12</v>
+        <v>255517.1568627452</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1405,25 +1405,25 @@
         <v>15</v>
       </c>
       <c r="D28">
-        <v>62.4</v>
+        <v>59.3</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1898</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1998</v>
+        <v>1898</v>
       </c>
       <c r="H28">
-        <v>275765.62</v>
+        <v>261963.5416666667</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>138.02</v>
+        <v>138</v>
       </c>
       <c r="K28">
         <v>0.3</v>
@@ -1440,19 +1440,19 @@
         <v>16</v>
       </c>
       <c r="D29">
-        <v>58.8</v>
+        <v>66.5</v>
       </c>
       <c r="E29">
-        <v>1998</v>
+        <v>2261</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1997</v>
+        <v>2261</v>
       </c>
       <c r="H29">
-        <v>259544.12</v>
+        <v>293708.3333333334</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1475,19 +1475,19 @@
         <v>17</v>
       </c>
       <c r="D30">
-        <v>58.8</v>
+        <v>59.7</v>
       </c>
       <c r="E30">
-        <v>1998</v>
+        <v>2030</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1997</v>
+        <v>2030</v>
       </c>
       <c r="H30">
-        <v>259544.12</v>
+        <v>263700.980392157</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1510,28 +1510,28 @@
         <v>18</v>
       </c>
       <c r="D31">
-        <v>62.4</v>
+        <v>51.3</v>
       </c>
       <c r="E31">
-        <v>1998</v>
+        <v>1642</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1998</v>
+        <v>1642</v>
       </c>
       <c r="H31">
-        <v>275765.62</v>
+        <v>226630.2083333333</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>138.02</v>
+        <v>138</v>
       </c>
       <c r="K31">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1545,28 +1545,28 @@
         <v>19</v>
       </c>
       <c r="D32">
-        <v>66.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="E32">
-        <v>1998</v>
+        <v>2489</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1998</v>
+        <v>2489</v>
       </c>
       <c r="H32">
-        <v>294150</v>
+        <v>366436.1111111113</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>147.22</v>
+        <v>147.2</v>
       </c>
       <c r="K32">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1580,19 +1580,19 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <v>58.8</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E33">
-        <v>1998</v>
+        <v>2496</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1997</v>
+        <v>2495</v>
       </c>
       <c r="H33">
-        <v>259544.12</v>
+        <v>324235.2941176469</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1615,28 +1615,28 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>55.5</v>
+        <v>25.6</v>
       </c>
       <c r="E34">
-        <v>1998</v>
+        <v>922</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1998</v>
+        <v>921</v>
       </c>
       <c r="H34">
-        <v>245125</v>
+        <v>113115.7407407407</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>122.69</v>
+        <v>122.7</v>
       </c>
       <c r="K34">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1650,25 +1650,25 @@
         <v>22</v>
       </c>
       <c r="D35">
-        <v>62.4</v>
+        <v>75.7</v>
       </c>
       <c r="E35">
-        <v>1998</v>
+        <v>2421</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1998</v>
+        <v>2421</v>
       </c>
       <c r="H35">
-        <v>275765.62</v>
+        <v>334148.4375</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>138.02</v>
+        <v>138</v>
       </c>
       <c r="K35">
         <v>0.3</v>
@@ -1685,28 +1685,28 @@
         <v>23</v>
       </c>
       <c r="D36">
-        <v>66.59999999999999</v>
+        <v>32.1</v>
       </c>
       <c r="E36">
-        <v>1998</v>
+        <v>963</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1998</v>
+        <v>963</v>
       </c>
       <c r="H36">
-        <v>294150</v>
+        <v>141775</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>147.22</v>
+        <v>147.2</v>
       </c>
       <c r="K36">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1732,13 +1732,13 @@
         <v>1998</v>
       </c>
       <c r="H37">
-        <v>315160.71</v>
+        <v>315160.7142857145</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>157.74</v>
+        <v>157.7</v>
       </c>
       <c r="K37">
         <v>0.3</v>

--- a/Output_Best_Q3.xlsx
+++ b/Output_Best_Q3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t>State</t>
   </si>
@@ -22,28 +22,31 @@
     <t>Month</t>
   </si>
   <si>
-    <t>No of FTE Best</t>
-  </si>
-  <si>
     <t>Demand</t>
   </si>
   <si>
-    <t>No of Outsource App Best</t>
-  </si>
-  <si>
-    <t>No of FTE Processed App Best</t>
-  </si>
-  <si>
-    <t>Estimated Cost Best</t>
-  </si>
-  <si>
-    <t>Percent Outsourced App Best</t>
-  </si>
-  <si>
-    <t>Average Cost Per Application Best</t>
-  </si>
-  <si>
-    <t>Estimated Cost in mn $ Best</t>
+    <t>No of FTE</t>
+  </si>
+  <si>
+    <t>No of Outsource</t>
+  </si>
+  <si>
+    <t>No of FTE Processed Applications</t>
+  </si>
+  <si>
+    <t>Percent FTE Applications</t>
+  </si>
+  <si>
+    <t>Percent Outsourced Applications</t>
+  </si>
+  <si>
+    <t>Estimated Cost</t>
+  </si>
+  <si>
+    <t>Cost per Application</t>
+  </si>
+  <si>
+    <t>Estimated Cost in mn $</t>
   </si>
   <si>
     <t>A</t>
@@ -446,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,1248 +486,1356 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>145.6</v>
+        <v>1998</v>
       </c>
       <c r="E2">
-        <v>5240</v>
+        <v>55.5</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5240</v>
+        <v>1998</v>
       </c>
       <c r="H2">
-        <v>727777.77777778</v>
+        <v>2.78</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>138.9</v>
+        <v>277500</v>
       </c>
       <c r="K2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>138.89</v>
+      </c>
+      <c r="L2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>143.5</v>
+        <v>1998</v>
       </c>
       <c r="E3">
-        <v>4878</v>
+        <v>58.8</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4877</v>
+        <v>1997</v>
       </c>
       <c r="H3">
-        <v>717352.94117647</v>
+        <v>2.94</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>147.1</v>
+        <v>293823.5294117645</v>
       </c>
       <c r="K3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>147.06</v>
+      </c>
+      <c r="L3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>185.7</v>
+        <v>1998</v>
       </c>
       <c r="E4">
-        <v>5942</v>
+        <v>62.4</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5942</v>
+        <v>1998</v>
       </c>
       <c r="H4">
-        <v>928437.5</v>
+        <v>3.12</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>156.2</v>
+        <v>312187.5</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>156.25</v>
+      </c>
+      <c r="L4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>67.59999999999999</v>
+        <v>1998</v>
       </c>
       <c r="E5">
-        <v>2297</v>
+        <v>58.8</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2297</v>
+        <v>1997</v>
       </c>
       <c r="H5">
-        <v>337794.117647059</v>
+        <v>2.94</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>147.1</v>
+        <v>293823.5294117645</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>147.06</v>
+      </c>
+      <c r="L5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>58.6</v>
+        <v>1998</v>
       </c>
       <c r="E6">
-        <v>1992</v>
+        <v>58.8</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="H6">
-        <v>292941.176470588</v>
+        <v>2.94</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>147.1</v>
+        <v>293823.5294117645</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>147.06</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>71.09999999999999</v>
+        <v>1998</v>
       </c>
       <c r="E7">
-        <v>2275</v>
+        <v>62.4</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2275</v>
+        <v>1998</v>
       </c>
       <c r="H7">
-        <v>355468.75</v>
+        <v>3.12</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>156.2</v>
+        <v>312187.5</v>
       </c>
       <c r="K7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>156.25</v>
+      </c>
+      <c r="L7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>177.8</v>
+        <v>1998</v>
       </c>
       <c r="E8">
-        <v>5334</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5334</v>
+        <v>1998</v>
       </c>
       <c r="H8">
-        <v>889000</v>
+        <v>3.33</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>166.7</v>
+        <v>333000</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>166.67</v>
+      </c>
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>99.09999999999999</v>
+        <v>1998</v>
       </c>
       <c r="E9">
-        <v>3371</v>
+        <v>58.8</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3370</v>
+        <v>1997</v>
       </c>
       <c r="H9">
-        <v>495735.294117647</v>
+        <v>2.94</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>147.1</v>
+        <v>293823.5294117645</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>147.06</v>
+      </c>
+      <c r="L9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>104.4</v>
+        <v>1998</v>
       </c>
       <c r="E10">
-        <v>3759</v>
+        <v>55.5</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3759</v>
+        <v>1998</v>
       </c>
       <c r="H10">
-        <v>522083.333333335</v>
+        <v>2.78</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>138.9</v>
+        <v>277500</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>138.89</v>
+      </c>
+      <c r="L10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>110.3</v>
+        <v>1998</v>
       </c>
       <c r="E11">
-        <v>3529</v>
+        <v>62.4</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3529</v>
+        <v>1998</v>
       </c>
       <c r="H11">
-        <v>551406.25</v>
+        <v>3.12</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>156.2</v>
+        <v>312187.5</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>156.25</v>
+      </c>
+      <c r="L11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>142.8</v>
+        <v>1998</v>
       </c>
       <c r="E12">
-        <v>4284</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4284</v>
+        <v>1998</v>
       </c>
       <c r="H12">
-        <v>714000</v>
+        <v>3.33</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>166.7</v>
+        <v>333000</v>
       </c>
       <c r="K12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>166.67</v>
+      </c>
+      <c r="L12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>185.1</v>
+        <v>1998</v>
       </c>
       <c r="E13">
-        <v>5183</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5183</v>
+        <v>1998</v>
       </c>
       <c r="H13">
-        <v>925535.714285715</v>
+        <v>3.57</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>178.6</v>
+        <v>356785.7142857145</v>
       </c>
       <c r="K13">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>178.57</v>
+      </c>
+      <c r="L13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>136.9</v>
+        <v>1998</v>
       </c>
       <c r="E14">
-        <v>4927</v>
+        <v>55.5</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4926</v>
+        <v>1998</v>
       </c>
       <c r="H14">
-        <v>627280.092592592</v>
+        <v>2.78</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>127.3</v>
+        <v>254375</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>127.31</v>
+      </c>
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>77.3</v>
+        <v>1998</v>
       </c>
       <c r="E15">
-        <v>2628</v>
+        <v>58.8</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2627</v>
+        <v>1997</v>
       </c>
       <c r="H15">
-        <v>354264.7058823528</v>
+        <v>2.94</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
+        <v>269338.2352941174</v>
+      </c>
+      <c r="K15">
         <v>134.8</v>
       </c>
-      <c r="K15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>92.90000000000001</v>
+        <v>1998</v>
       </c>
       <c r="E16">
-        <v>2974</v>
+        <v>62.4</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2974</v>
+        <v>1998</v>
       </c>
       <c r="H16">
-        <v>425963.5416666666</v>
+        <v>3.12</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>143.2</v>
+        <v>286171.875</v>
       </c>
       <c r="K16">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>143.23</v>
+      </c>
+      <c r="L16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>68.8</v>
+        <v>1998</v>
       </c>
       <c r="E17">
-        <v>2338</v>
+        <v>58.8</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2337</v>
+        <v>1997</v>
       </c>
       <c r="H17">
-        <v>315171.5686274508</v>
+        <v>2.94</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
+        <v>269338.2352941174</v>
+      </c>
+      <c r="K17">
         <v>134.8</v>
       </c>
-      <c r="K17">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>118.2</v>
+        <v>1998</v>
       </c>
       <c r="E18">
-        <v>4020</v>
+        <v>58.8</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4019</v>
+        <v>1997</v>
       </c>
       <c r="H18">
-        <v>541911.7647058821</v>
+        <v>2.94</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
+        <v>269338.2352941174</v>
+      </c>
+      <c r="K18">
         <v>134.8</v>
       </c>
-      <c r="K18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>98.3</v>
+        <v>1998</v>
       </c>
       <c r="E19">
-        <v>3147</v>
+        <v>62.4</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3147</v>
+        <v>1998</v>
       </c>
       <c r="H19">
-        <v>450742.1874999999</v>
+        <v>3.12</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>143.2</v>
+        <v>286171.875</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>143.23</v>
+      </c>
+      <c r="L19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>85.40000000000001</v>
+        <v>1998</v>
       </c>
       <c r="E20">
-        <v>4271</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>1708</v>
+        <v>799</v>
       </c>
       <c r="G20">
-        <v>2562</v>
+        <v>1199</v>
       </c>
       <c r="H20">
-        <v>647769.4444444443</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J20">
-        <v>151.7</v>
+        <v>303030.5555555557</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>151.67</v>
+      </c>
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>77.09999999999999</v>
+        <v>1998</v>
       </c>
       <c r="E21">
-        <v>2620</v>
+        <v>58.8</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2620</v>
+        <v>1997</v>
       </c>
       <c r="H21">
-        <v>353186.274509804</v>
+        <v>2.94</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
+        <v>269338.2352941174</v>
+      </c>
+      <c r="K21">
         <v>134.8</v>
       </c>
-      <c r="K21">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>125.5</v>
+        <v>1998</v>
       </c>
       <c r="E22">
-        <v>4517</v>
+        <v>55.5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4516</v>
+        <v>1998</v>
       </c>
       <c r="H22">
-        <v>575081.0185185175</v>
+        <v>2.78</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>127.3</v>
+        <v>254375</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>127.31</v>
+      </c>
+      <c r="L22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>129.8</v>
+        <v>1998</v>
       </c>
       <c r="E23">
-        <v>4155</v>
+        <v>62.4</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4155</v>
+        <v>1998</v>
       </c>
       <c r="H23">
-        <v>595117.1875</v>
+        <v>3.12</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>143.2</v>
+        <v>286171.875</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>143.23</v>
+      </c>
+      <c r="L23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>62.8</v>
+        <v>1998</v>
       </c>
       <c r="E24">
-        <v>3137</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>1254</v>
+        <v>799</v>
       </c>
       <c r="G24">
-        <v>1883</v>
+        <v>1199</v>
       </c>
       <c r="H24">
-        <v>475780.5555555557</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J24">
-        <v>151.7</v>
+        <v>303030.5555555557</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>151.67</v>
+      </c>
+      <c r="L24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>90.59999999999999</v>
+        <v>1998</v>
       </c>
       <c r="E25">
-        <v>4227</v>
+        <v>42.8</v>
       </c>
       <c r="F25">
-        <v>1690</v>
+        <v>799</v>
       </c>
       <c r="G25">
-        <v>2537</v>
+        <v>1199</v>
       </c>
       <c r="H25">
-        <v>668782.7380952383</v>
+        <v>2.14</v>
       </c>
       <c r="I25">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J25">
-        <v>158.2</v>
+        <v>316114.8809523811</v>
       </c>
       <c r="K25">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>158.22</v>
+      </c>
+      <c r="L25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>32.3</v>
+        <v>1998</v>
       </c>
       <c r="E26">
-        <v>1162</v>
+        <v>55.5</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1162</v>
+        <v>1998</v>
       </c>
       <c r="H26">
-        <v>142560.1851851853</v>
+        <v>2.78</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>122.7</v>
+        <v>245125</v>
       </c>
       <c r="K26">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>122.69</v>
+      </c>
+      <c r="L26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>57.9</v>
+        <v>1998</v>
       </c>
       <c r="E27">
-        <v>1967</v>
+        <v>58.8</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1967</v>
+        <v>1997</v>
       </c>
       <c r="H27">
-        <v>255517.1568627452</v>
+        <v>2.94</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
+        <v>259544.1176470587</v>
+      </c>
+      <c r="K27">
         <v>129.9</v>
       </c>
-      <c r="K27">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>59.3</v>
+        <v>1998</v>
       </c>
       <c r="E28">
-        <v>1898</v>
+        <v>62.4</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1898</v>
+        <v>1998</v>
       </c>
       <c r="H28">
-        <v>261963.5416666667</v>
+        <v>3.12</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>138</v>
+        <v>275765.625</v>
       </c>
       <c r="K28">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>138.02</v>
+      </c>
+      <c r="L28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>66.5</v>
+        <v>1998</v>
       </c>
       <c r="E29">
-        <v>2261</v>
+        <v>58.8</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2261</v>
+        <v>1997</v>
       </c>
       <c r="H29">
-        <v>293708.3333333334</v>
+        <v>2.94</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
+        <v>259544.1176470587</v>
+      </c>
+      <c r="K29">
         <v>129.9</v>
       </c>
-      <c r="K29">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>59.7</v>
+        <v>1998</v>
       </c>
       <c r="E30">
-        <v>2030</v>
+        <v>58.8</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2030</v>
+        <v>1997</v>
       </c>
       <c r="H30">
-        <v>263700.980392157</v>
+        <v>2.94</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
+        <v>259544.1176470587</v>
+      </c>
+      <c r="K30">
         <v>129.9</v>
       </c>
-      <c r="K30">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>51.3</v>
+        <v>1998</v>
       </c>
       <c r="E31">
-        <v>1642</v>
+        <v>62.4</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1642</v>
+        <v>1998</v>
       </c>
       <c r="H31">
-        <v>226630.2083333333</v>
+        <v>3.12</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>138</v>
+        <v>275765.625</v>
       </c>
       <c r="K31">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>138.02</v>
+      </c>
+      <c r="L31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>83</v>
+        <v>1998</v>
       </c>
       <c r="E32">
-        <v>2489</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2489</v>
+        <v>1998</v>
       </c>
       <c r="H32">
-        <v>366436.1111111113</v>
+        <v>3.33</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>147.2</v>
+        <v>294150</v>
       </c>
       <c r="K32">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>147.22</v>
+      </c>
+      <c r="L32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>73.40000000000001</v>
+        <v>1998</v>
       </c>
       <c r="E33">
-        <v>2496</v>
+        <v>58.8</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2495</v>
+        <v>1997</v>
       </c>
       <c r="H33">
-        <v>324235.2941176469</v>
+        <v>2.94</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
+        <v>259544.1176470587</v>
+      </c>
+      <c r="K33">
         <v>129.9</v>
       </c>
-      <c r="K33">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>25.6</v>
+        <v>1998</v>
       </c>
       <c r="E34">
-        <v>922</v>
+        <v>55.5</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>921</v>
+        <v>1998</v>
       </c>
       <c r="H34">
-        <v>113115.7407407407</v>
+        <v>2.78</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>122.7</v>
+        <v>245125</v>
       </c>
       <c r="K34">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>122.69</v>
+      </c>
+      <c r="L34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>75.7</v>
+        <v>1998</v>
       </c>
       <c r="E35">
-        <v>2421</v>
+        <v>62.4</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>2421</v>
+        <v>1998</v>
       </c>
       <c r="H35">
-        <v>334148.4375</v>
+        <v>3.12</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>138</v>
+        <v>275765.625</v>
       </c>
       <c r="K35">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>138.02</v>
+      </c>
+      <c r="L35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>32.1</v>
+        <v>1998</v>
       </c>
       <c r="E36">
-        <v>963</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>963</v>
+        <v>1998</v>
       </c>
       <c r="H36">
-        <v>141775</v>
+        <v>3.33</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>147.2</v>
+        <v>294150</v>
       </c>
       <c r="K36">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>147.22</v>
+      </c>
+      <c r="L36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37">
+        <v>1998</v>
+      </c>
+      <c r="E37">
         <v>71.40000000000001</v>
       </c>
-      <c r="E37">
-        <v>1998</v>
-      </c>
       <c r="F37">
         <v>0</v>
       </c>
@@ -1732,15 +1843,18 @@
         <v>1998</v>
       </c>
       <c r="H37">
+        <v>3.57</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>315160.7142857145</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>157.7</v>
-      </c>
       <c r="K37">
+        <v>157.74</v>
+      </c>
+      <c r="L37">
         <v>0.3</v>
       </c>
     </row>

--- a/Output_Best_Q3.xlsx
+++ b/Output_Best_Q3.xlsx
@@ -501,16 +501,16 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1998</v>
+        <v>5240</v>
       </c>
       <c r="E2">
-        <v>55.5</v>
+        <v>145.6</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1998</v>
+        <v>5240</v>
       </c>
       <c r="H2">
         <v>2.78</v>
@@ -519,13 +519,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>277500</v>
+        <v>727777.77777778</v>
       </c>
       <c r="K2">
         <v>138.89</v>
       </c>
       <c r="L2">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -539,16 +539,16 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>1998</v>
+        <v>4878</v>
       </c>
       <c r="E3">
-        <v>58.8</v>
+        <v>143.5</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1997</v>
+        <v>4877</v>
       </c>
       <c r="H3">
         <v>2.94</v>
@@ -557,13 +557,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>293823.5294117645</v>
+        <v>717352.94117647</v>
       </c>
       <c r="K3">
         <v>147.06</v>
       </c>
       <c r="L3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -577,16 +577,16 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>1998</v>
+        <v>5942</v>
       </c>
       <c r="E4">
-        <v>62.4</v>
+        <v>185.7</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1998</v>
+        <v>5942</v>
       </c>
       <c r="H4">
         <v>3.12</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>312187.5</v>
+        <v>928437.5</v>
       </c>
       <c r="K4">
         <v>156.25</v>
       </c>
       <c r="L4">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -615,16 +615,16 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1998</v>
+        <v>2297</v>
       </c>
       <c r="E5">
-        <v>58.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1997</v>
+        <v>2297</v>
       </c>
       <c r="H5">
         <v>2.94</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>293823.5294117645</v>
+        <v>337794.117647059</v>
       </c>
       <c r="K5">
         <v>147.06</v>
@@ -653,16 +653,16 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="E6">
-        <v>58.8</v>
+        <v>58.6</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="H6">
         <v>2.94</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>293823.5294117645</v>
+        <v>292941.176470588</v>
       </c>
       <c r="K6">
         <v>147.06</v>
@@ -691,16 +691,16 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>1998</v>
+        <v>2275</v>
       </c>
       <c r="E7">
-        <v>62.4</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1998</v>
+        <v>2275</v>
       </c>
       <c r="H7">
         <v>3.12</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>312187.5</v>
+        <v>355468.75</v>
       </c>
       <c r="K7">
         <v>156.25</v>
       </c>
       <c r="L7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -729,16 +729,16 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>1998</v>
+        <v>5334</v>
       </c>
       <c r="E8">
-        <v>66.59999999999999</v>
+        <v>177.8</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1998</v>
+        <v>5334</v>
       </c>
       <c r="H8">
         <v>3.33</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>333000</v>
+        <v>889000</v>
       </c>
       <c r="K8">
         <v>166.67</v>
       </c>
       <c r="L8">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -767,16 +767,16 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>1998</v>
+        <v>3371</v>
       </c>
       <c r="E9">
-        <v>58.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1997</v>
+        <v>3370</v>
       </c>
       <c r="H9">
         <v>2.94</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>293823.5294117645</v>
+        <v>495735.294117647</v>
       </c>
       <c r="K9">
         <v>147.06</v>
       </c>
       <c r="L9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -805,16 +805,16 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>1998</v>
+        <v>3759</v>
       </c>
       <c r="E10">
-        <v>55.5</v>
+        <v>104.4</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1998</v>
+        <v>3759</v>
       </c>
       <c r="H10">
         <v>2.78</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>277500</v>
+        <v>522083.333333335</v>
       </c>
       <c r="K10">
         <v>138.89</v>
       </c>
       <c r="L10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -843,16 +843,16 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>1998</v>
+        <v>3529</v>
       </c>
       <c r="E11">
-        <v>62.4</v>
+        <v>110.3</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1998</v>
+        <v>3529</v>
       </c>
       <c r="H11">
         <v>3.12</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>312187.5</v>
+        <v>551406.25</v>
       </c>
       <c r="K11">
         <v>156.25</v>
       </c>
       <c r="L11">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -881,16 +881,16 @@
         <v>24</v>
       </c>
       <c r="D12">
-        <v>1998</v>
+        <v>4284</v>
       </c>
       <c r="E12">
-        <v>66.59999999999999</v>
+        <v>142.8</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1998</v>
+        <v>4284</v>
       </c>
       <c r="H12">
         <v>3.33</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>333000</v>
+        <v>714000</v>
       </c>
       <c r="K12">
         <v>166.67</v>
       </c>
       <c r="L12">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -919,16 +919,16 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>1998</v>
+        <v>5183</v>
       </c>
       <c r="E13">
-        <v>71.40000000000001</v>
+        <v>185.1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1998</v>
+        <v>5183</v>
       </c>
       <c r="H13">
         <v>3.57</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>356785.7142857145</v>
+        <v>925535.714285715</v>
       </c>
       <c r="K13">
         <v>178.57</v>
       </c>
       <c r="L13">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -957,16 +957,16 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>1998</v>
+        <v>4927</v>
       </c>
       <c r="E14">
-        <v>55.5</v>
+        <v>136.9</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1998</v>
+        <v>4926</v>
       </c>
       <c r="H14">
         <v>2.78</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>254375</v>
+        <v>627280.092592592</v>
       </c>
       <c r="K14">
         <v>127.31</v>
       </c>
       <c r="L14">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -995,16 +995,16 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>1998</v>
+        <v>2628</v>
       </c>
       <c r="E15">
-        <v>58.8</v>
+        <v>77.3</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1997</v>
+        <v>2627</v>
       </c>
       <c r="H15">
         <v>2.94</v>
@@ -1013,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>269338.2352941174</v>
+        <v>354264.7058823528</v>
       </c>
       <c r="K15">
         <v>134.8</v>
       </c>
       <c r="L15">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1033,16 +1033,16 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>1998</v>
+        <v>2974</v>
       </c>
       <c r="E16">
-        <v>62.4</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1998</v>
+        <v>2974</v>
       </c>
       <c r="H16">
         <v>3.12</v>
@@ -1051,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>286171.875</v>
+        <v>425963.5416666666</v>
       </c>
       <c r="K16">
         <v>143.23</v>
       </c>
       <c r="L16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1071,16 +1071,16 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <v>1998</v>
+        <v>2338</v>
       </c>
       <c r="E17">
-        <v>58.8</v>
+        <v>68.8</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1997</v>
+        <v>2337</v>
       </c>
       <c r="H17">
         <v>2.94</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>269338.2352941174</v>
+        <v>315171.5686274508</v>
       </c>
       <c r="K17">
         <v>134.8</v>
@@ -1109,16 +1109,16 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>1998</v>
+        <v>4020</v>
       </c>
       <c r="E18">
-        <v>58.8</v>
+        <v>118.2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1997</v>
+        <v>4019</v>
       </c>
       <c r="H18">
         <v>2.94</v>
@@ -1127,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>269338.2352941174</v>
+        <v>541911.7647058821</v>
       </c>
       <c r="K18">
         <v>134.8</v>
       </c>
       <c r="L18">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1147,16 +1147,16 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <v>1998</v>
+        <v>3147</v>
       </c>
       <c r="E19">
-        <v>62.4</v>
+        <v>98.3</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1998</v>
+        <v>3147</v>
       </c>
       <c r="H19">
         <v>3.12</v>
@@ -1165,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>286171.875</v>
+        <v>450742.1874999999</v>
       </c>
       <c r="K19">
         <v>143.23</v>
       </c>
       <c r="L19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1185,16 +1185,16 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <v>1998</v>
+        <v>4271</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="F20">
-        <v>799</v>
+        <v>1708</v>
       </c>
       <c r="G20">
-        <v>1199</v>
+        <v>2562</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1203,13 +1203,13 @@
         <v>39.99</v>
       </c>
       <c r="J20">
-        <v>303030.5555555557</v>
+        <v>647769.4444444443</v>
       </c>
       <c r="K20">
         <v>151.67</v>
       </c>
       <c r="L20">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1223,16 +1223,16 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>1998</v>
+        <v>2620</v>
       </c>
       <c r="E21">
-        <v>58.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1997</v>
+        <v>2620</v>
       </c>
       <c r="H21">
         <v>2.94</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>269338.2352941174</v>
+        <v>353186.274509804</v>
       </c>
       <c r="K21">
         <v>134.8</v>
       </c>
       <c r="L21">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1261,16 +1261,16 @@
         <v>22</v>
       </c>
       <c r="D22">
-        <v>1998</v>
+        <v>4517</v>
       </c>
       <c r="E22">
-        <v>55.5</v>
+        <v>125.5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1998</v>
+        <v>4516</v>
       </c>
       <c r="H22">
         <v>2.78</v>
@@ -1279,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>254375</v>
+        <v>575081.0185185175</v>
       </c>
       <c r="K22">
         <v>127.31</v>
       </c>
       <c r="L22">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1299,16 +1299,16 @@
         <v>23</v>
       </c>
       <c r="D23">
-        <v>1998</v>
+        <v>4155</v>
       </c>
       <c r="E23">
-        <v>62.4</v>
+        <v>129.8</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1998</v>
+        <v>4155</v>
       </c>
       <c r="H23">
         <v>3.12</v>
@@ -1317,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>286171.875</v>
+        <v>595117.1875</v>
       </c>
       <c r="K23">
         <v>143.23</v>
       </c>
       <c r="L23">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1337,31 +1337,31 @@
         <v>24</v>
       </c>
       <c r="D24">
-        <v>1998</v>
+        <v>3137</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>62.8</v>
       </c>
       <c r="F24">
-        <v>799</v>
+        <v>1254</v>
       </c>
       <c r="G24">
-        <v>1199</v>
+        <v>1883</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>39.99</v>
+        <v>39.97</v>
       </c>
       <c r="J24">
-        <v>303030.5555555557</v>
+        <v>475780.5555555557</v>
       </c>
       <c r="K24">
         <v>151.67</v>
       </c>
       <c r="L24">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1375,31 +1375,31 @@
         <v>25</v>
       </c>
       <c r="D25">
-        <v>1998</v>
+        <v>4227</v>
       </c>
       <c r="E25">
-        <v>42.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F25">
-        <v>799</v>
+        <v>1690</v>
       </c>
       <c r="G25">
-        <v>1199</v>
+        <v>2537</v>
       </c>
       <c r="H25">
         <v>2.14</v>
       </c>
       <c r="I25">
-        <v>39.99</v>
+        <v>39.98</v>
       </c>
       <c r="J25">
-        <v>316114.8809523811</v>
+        <v>668782.7380952383</v>
       </c>
       <c r="K25">
         <v>158.22</v>
       </c>
       <c r="L25">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1413,16 +1413,16 @@
         <v>14</v>
       </c>
       <c r="D26">
-        <v>1998</v>
+        <v>1162</v>
       </c>
       <c r="E26">
-        <v>55.5</v>
+        <v>32.3</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1998</v>
+        <v>1162</v>
       </c>
       <c r="H26">
         <v>2.78</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>245125</v>
+        <v>142560.1851851853</v>
       </c>
       <c r="K26">
         <v>122.69</v>
       </c>
       <c r="L26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1451,16 +1451,16 @@
         <v>15</v>
       </c>
       <c r="D27">
-        <v>1998</v>
+        <v>1967</v>
       </c>
       <c r="E27">
-        <v>58.8</v>
+        <v>57.9</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="H27">
         <v>2.94</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>259544.1176470587</v>
+        <v>255517.1568627452</v>
       </c>
       <c r="K27">
         <v>129.9</v>
@@ -1489,16 +1489,16 @@
         <v>16</v>
       </c>
       <c r="D28">
-        <v>1998</v>
+        <v>1898</v>
       </c>
       <c r="E28">
-        <v>62.4</v>
+        <v>59.3</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1998</v>
+        <v>1898</v>
       </c>
       <c r="H28">
         <v>3.12</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>275765.625</v>
+        <v>261963.5416666667</v>
       </c>
       <c r="K28">
         <v>138.02</v>
@@ -1527,16 +1527,16 @@
         <v>17</v>
       </c>
       <c r="D29">
-        <v>1998</v>
+        <v>2261</v>
       </c>
       <c r="E29">
-        <v>58.8</v>
+        <v>66.5</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1997</v>
+        <v>2261</v>
       </c>
       <c r="H29">
         <v>2.94</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>259544.1176470587</v>
+        <v>293708.3333333334</v>
       </c>
       <c r="K29">
         <v>129.9</v>
@@ -1565,16 +1565,16 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>1998</v>
+        <v>2030</v>
       </c>
       <c r="E30">
-        <v>58.8</v>
+        <v>59.7</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1997</v>
+        <v>2030</v>
       </c>
       <c r="H30">
         <v>2.94</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>259544.1176470587</v>
+        <v>263700.980392157</v>
       </c>
       <c r="K30">
         <v>129.9</v>
@@ -1603,16 +1603,16 @@
         <v>19</v>
       </c>
       <c r="D31">
-        <v>1998</v>
+        <v>1642</v>
       </c>
       <c r="E31">
-        <v>62.4</v>
+        <v>51.3</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1998</v>
+        <v>1642</v>
       </c>
       <c r="H31">
         <v>3.12</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>275765.625</v>
+        <v>226630.2083333333</v>
       </c>
       <c r="K31">
         <v>138.02</v>
       </c>
       <c r="L31">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1641,16 +1641,16 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>1998</v>
+        <v>2489</v>
       </c>
       <c r="E32">
-        <v>66.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1998</v>
+        <v>2489</v>
       </c>
       <c r="H32">
         <v>3.33</v>
@@ -1659,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>294150</v>
+        <v>366436.1111111113</v>
       </c>
       <c r="K32">
         <v>147.22</v>
       </c>
       <c r="L32">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1679,16 +1679,16 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>1998</v>
+        <v>2496</v>
       </c>
       <c r="E33">
-        <v>58.8</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1997</v>
+        <v>2495</v>
       </c>
       <c r="H33">
         <v>2.94</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>259544.1176470587</v>
+        <v>324235.2941176469</v>
       </c>
       <c r="K33">
         <v>129.9</v>
@@ -1717,16 +1717,16 @@
         <v>22</v>
       </c>
       <c r="D34">
-        <v>1998</v>
+        <v>922</v>
       </c>
       <c r="E34">
-        <v>55.5</v>
+        <v>25.6</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1998</v>
+        <v>921</v>
       </c>
       <c r="H34">
         <v>2.78</v>
@@ -1735,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>245125</v>
+        <v>113115.7407407407</v>
       </c>
       <c r="K34">
         <v>122.69</v>
       </c>
       <c r="L34">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1755,16 +1755,16 @@
         <v>23</v>
       </c>
       <c r="D35">
-        <v>1998</v>
+        <v>2421</v>
       </c>
       <c r="E35">
-        <v>62.4</v>
+        <v>75.7</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1998</v>
+        <v>2421</v>
       </c>
       <c r="H35">
         <v>3.12</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>275765.625</v>
+        <v>334148.4375</v>
       </c>
       <c r="K35">
         <v>138.02</v>
@@ -1793,16 +1793,16 @@
         <v>24</v>
       </c>
       <c r="D36">
-        <v>1998</v>
+        <v>963</v>
       </c>
       <c r="E36">
-        <v>66.59999999999999</v>
+        <v>32.1</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1998</v>
+        <v>963</v>
       </c>
       <c r="H36">
         <v>3.33</v>
@@ -1811,13 +1811,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>294150</v>
+        <v>141775</v>
       </c>
       <c r="K36">
         <v>147.22</v>
       </c>
       <c r="L36">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="1:12">
